--- a/MovieLens/stock_data.xlsx
+++ b/MovieLens/stock_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\py\pandas\4_read_write_to_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heenashree_Khandelwa\PycharmProjects\Analytics_MovieLens\MovieLens\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF772C92-D71D-42E0-93A8-90549A6E1AE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21615" windowHeight="11805"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>eps</t>
   </si>
@@ -67,12 +68,18 @@
   </si>
   <si>
     <t>ratan tata</t>
+  </si>
+  <si>
+    <t>FORD</t>
+  </si>
+  <si>
+    <t>Ford</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -907,20 +914,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -937,7 +944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -954,7 +961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -971,7 +978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -988,7 +995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1005,7 +1012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1020,6 +1027,23 @@
       </c>
       <c r="E6" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>5.6</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
